--- a/data_2015-12-30.xlsx
+++ b/data_2015-12-30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fd8900177decf0f/Documents/UIUC - Industrial Engineering/Sem4/Sowers Self Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin\OneDrive\Documents\UIUC - Industrial Engineering\Sem4\Sowers-Self-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,13 @@
   </definedNames>
   <calcPr calcId="152511" fullPrecision="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>"lat"</t>
   </si>
@@ -61,12 +60,15 @@
   <si>
     <t>Sum of delDist</t>
   </si>
+  <si>
+    <t>(These sum totals don’t match with the sum totals obtained in the data.xls sheet)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,6 +103,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -189,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -213,6 +221,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1012,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1353,7 +1362,7 @@
   </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1363,7 +1372,7 @@
     <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3279,16 +3288,17 @@
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="E20" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3296,59 +3306,63 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8.9679439112589797E-4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>8.9679439112589797E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8.9874986461826502E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>8.9874986461826502E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9.0900363460350801E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>9.0900363460350801E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
         <v>9.0309018015618104E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B8" s="8">
         <v>3.60763807050385E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>